--- a/data/pca/factorExposure/factorExposure_2009-04-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01734837708539923</v>
+        <v>0.01677268878902642</v>
       </c>
       <c r="C2">
-        <v>0.002143304441446043</v>
+        <v>-0.001388890307136452</v>
       </c>
       <c r="D2">
-        <v>0.007878452602450261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008807889428320295</v>
+      </c>
+      <c r="E2">
+        <v>0.0005536912127647362</v>
+      </c>
+      <c r="F2">
+        <v>0.01946524222272657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08692157769473047</v>
+        <v>0.09020986425577682</v>
       </c>
       <c r="C4">
-        <v>0.02065242639778924</v>
+        <v>-0.0158288451138717</v>
       </c>
       <c r="D4">
-        <v>0.08083969846756475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08409602971282752</v>
+      </c>
+      <c r="E4">
+        <v>0.03266097173217088</v>
+      </c>
+      <c r="F4">
+        <v>-0.03748728524454582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0004931478820336908</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.210439541116119e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.575989929523174e-05</v>
+      </c>
+      <c r="E5">
+        <v>-4.423549662060252e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.0005991815644400836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1578948130293716</v>
+        <v>0.1652140745898316</v>
       </c>
       <c r="C6">
-        <v>0.03499932250333226</v>
+        <v>-0.03388532705235617</v>
       </c>
       <c r="D6">
-        <v>-0.0295094616759091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01956767851647254</v>
+      </c>
+      <c r="E6">
+        <v>0.01602516041456488</v>
+      </c>
+      <c r="F6">
+        <v>-0.05591655200030152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05715555504416386</v>
+        <v>0.06117303449798826</v>
       </c>
       <c r="C7">
-        <v>0.002254020002344084</v>
+        <v>0.001023719205285287</v>
       </c>
       <c r="D7">
-        <v>0.04786622445397821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05241563818758824</v>
+      </c>
+      <c r="E7">
+        <v>0.01957117626480012</v>
+      </c>
+      <c r="F7">
+        <v>-0.04527631124064767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05849634286843355</v>
+        <v>0.05503391225352752</v>
       </c>
       <c r="C8">
-        <v>-0.009434173502000735</v>
+        <v>0.01161328799657162</v>
       </c>
       <c r="D8">
-        <v>0.02706937081053915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03099461734227283</v>
+      </c>
+      <c r="E8">
+        <v>0.01326880428036894</v>
+      </c>
+      <c r="F8">
+        <v>0.03673205737153261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06846845074299024</v>
+        <v>0.07096016283195285</v>
       </c>
       <c r="C9">
-        <v>0.01669232281399048</v>
+        <v>-0.01171731420886008</v>
       </c>
       <c r="D9">
-        <v>0.08420568396269676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08792698984184424</v>
+      </c>
+      <c r="E9">
+        <v>0.03095582618953229</v>
+      </c>
+      <c r="F9">
+        <v>-0.05689323366600571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08894041865174393</v>
+        <v>0.08784804537353472</v>
       </c>
       <c r="C10">
-        <v>0.02027567869806876</v>
+        <v>-0.02379691113482871</v>
       </c>
       <c r="D10">
-        <v>-0.1672994323878069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1580094861327554</v>
+      </c>
+      <c r="E10">
+        <v>-0.03695148329372593</v>
+      </c>
+      <c r="F10">
+        <v>0.0771396990962482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0889799907192466</v>
+        <v>0.08596422208238672</v>
       </c>
       <c r="C11">
-        <v>0.0181168940979209</v>
+        <v>-0.01266318218411776</v>
       </c>
       <c r="D11">
-        <v>0.1170892680133938</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1217348578645089</v>
+      </c>
+      <c r="E11">
+        <v>0.05638020181954551</v>
+      </c>
+      <c r="F11">
+        <v>-0.005850778628283189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09465119392829043</v>
+        <v>0.08952399614644423</v>
       </c>
       <c r="C12">
-        <v>0.01662825903033477</v>
+        <v>-0.01034436792673325</v>
       </c>
       <c r="D12">
-        <v>0.1230128569173869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1358123672350783</v>
+      </c>
+      <c r="E12">
+        <v>0.06007605067552173</v>
+      </c>
+      <c r="F12">
+        <v>-0.01062721271565965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04488787085091214</v>
+        <v>0.04523556385384948</v>
       </c>
       <c r="C13">
-        <v>0.007554331032688931</v>
+        <v>-0.004073844820197858</v>
       </c>
       <c r="D13">
-        <v>0.04894221250399738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05605316947932638</v>
+      </c>
+      <c r="E13">
+        <v>-0.0009113371244954852</v>
+      </c>
+      <c r="F13">
+        <v>-0.006762025733008048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01816129366635438</v>
+        <v>0.02124361141890382</v>
       </c>
       <c r="C14">
-        <v>0.01465747378290567</v>
+        <v>-0.01360026187815821</v>
       </c>
       <c r="D14">
-        <v>0.03210787443645438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03376110531513529</v>
+      </c>
+      <c r="E14">
+        <v>0.02282021421329513</v>
+      </c>
+      <c r="F14">
+        <v>-0.01281538550490129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03435948369180537</v>
+        <v>0.03495915553741436</v>
       </c>
       <c r="C15">
-        <v>0.008617778651087019</v>
+        <v>-0.006688498289022593</v>
       </c>
       <c r="D15">
-        <v>0.04880551440636768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04875267426542577</v>
+      </c>
+      <c r="E15">
+        <v>0.01208173520228293</v>
+      </c>
+      <c r="F15">
+        <v>-0.02808333055809665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07093074993414246</v>
+        <v>0.06946175905307637</v>
       </c>
       <c r="C16">
-        <v>0.00742569118363318</v>
+        <v>-0.001811373825066425</v>
       </c>
       <c r="D16">
-        <v>0.1191664019095627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1308496240980413</v>
+      </c>
+      <c r="E16">
+        <v>0.07064117689763583</v>
+      </c>
+      <c r="F16">
+        <v>-0.007770754688750287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002242272149565832</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.001134877622973584</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001748067201096176</v>
+      </c>
+      <c r="E17">
+        <v>0.004981767083463763</v>
+      </c>
+      <c r="F17">
+        <v>0.003619394824722557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02853773420578571</v>
+        <v>0.04564662008669632</v>
       </c>
       <c r="C18">
-        <v>-0.0005167320783574127</v>
+        <v>0.0002960219883454857</v>
       </c>
       <c r="D18">
-        <v>0.02133485279535434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0192634537619805</v>
+      </c>
+      <c r="E18">
+        <v>-0.005449779455685412</v>
+      </c>
+      <c r="F18">
+        <v>0.0134615219665402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06350084047625265</v>
+        <v>0.06219820726969103</v>
       </c>
       <c r="C20">
-        <v>0.006184484409648635</v>
+        <v>-0.002500837418956756</v>
       </c>
       <c r="D20">
-        <v>0.07648248551162794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.08080108845830353</v>
+      </c>
+      <c r="E20">
+        <v>0.06476924323644628</v>
+      </c>
+      <c r="F20">
+        <v>-0.02982110783757865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04062724068451098</v>
+        <v>0.04274086797504099</v>
       </c>
       <c r="C21">
-        <v>0.01024744211103668</v>
+        <v>-0.007404391868939676</v>
       </c>
       <c r="D21">
-        <v>0.03970366819639708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03860231908667758</v>
+      </c>
+      <c r="E21">
+        <v>0.000766527710215951</v>
+      </c>
+      <c r="F21">
+        <v>0.02425099604151146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04446760811667119</v>
+        <v>0.044742510779531</v>
       </c>
       <c r="C22">
-        <v>0.003549228613464266</v>
+        <v>-0.002402626424960409</v>
       </c>
       <c r="D22">
-        <v>0.004131109166450839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01044225081409345</v>
+      </c>
+      <c r="E22">
+        <v>0.02887317247709565</v>
+      </c>
+      <c r="F22">
+        <v>0.08880755762716341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04447612424095847</v>
+        <v>0.04474979654401348</v>
       </c>
       <c r="C23">
-        <v>0.003551429561675931</v>
+        <v>-0.00240476113698439</v>
       </c>
       <c r="D23">
-        <v>0.004122291488709428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01043550987863128</v>
+      </c>
+      <c r="E23">
+        <v>0.02888091661817456</v>
+      </c>
+      <c r="F23">
+        <v>0.08884810330112659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07877354052665678</v>
+        <v>0.07595856110466644</v>
       </c>
       <c r="C24">
-        <v>0.008362629889650492</v>
+        <v>-0.002951985022936124</v>
       </c>
       <c r="D24">
-        <v>0.1208717886552163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1246951609576083</v>
+      </c>
+      <c r="E24">
+        <v>0.0550384637872901</v>
+      </c>
+      <c r="F24">
+        <v>-0.0194279593438905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08299045637243324</v>
+        <v>0.08010740323378476</v>
       </c>
       <c r="C25">
-        <v>0.010520034204693</v>
+        <v>-0.005666884748436208</v>
       </c>
       <c r="D25">
-        <v>0.106950346977422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1114009122625315</v>
+      </c>
+      <c r="E25">
+        <v>0.04103255385831506</v>
+      </c>
+      <c r="F25">
+        <v>-0.01257340067616013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05622249863265754</v>
+        <v>0.06103914751833876</v>
       </c>
       <c r="C26">
-        <v>0.0189982046960671</v>
+        <v>-0.01591953381953526</v>
       </c>
       <c r="D26">
-        <v>0.04231381951086386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04952762118477382</v>
+      </c>
+      <c r="E26">
+        <v>0.02887076652931857</v>
+      </c>
+      <c r="F26">
+        <v>0.01824823492097253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1427107303451676</v>
+        <v>0.1490840468884649</v>
       </c>
       <c r="C28">
-        <v>0.02234014352800864</v>
+        <v>-0.0285961060225914</v>
       </c>
       <c r="D28">
-        <v>-0.2579088663377815</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2538148639035612</v>
+      </c>
+      <c r="E28">
+        <v>-0.06163949217512799</v>
+      </c>
+      <c r="F28">
+        <v>-0.006632102954456336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02534753563453643</v>
+        <v>0.02741811710944328</v>
       </c>
       <c r="C29">
-        <v>0.009829123409753731</v>
+        <v>-0.009020712860004757</v>
       </c>
       <c r="D29">
-        <v>0.03108853787250494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03144521044315864</v>
+      </c>
+      <c r="E29">
+        <v>0.01718282515479798</v>
+      </c>
+      <c r="F29">
+        <v>0.02505798127803493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05443904956143608</v>
+        <v>0.05273721836117706</v>
       </c>
       <c r="C30">
-        <v>0.007059196308360558</v>
+        <v>-0.002552442341765871</v>
       </c>
       <c r="D30">
-        <v>0.08224025707457414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08827489520433014</v>
+      </c>
+      <c r="E30">
+        <v>0.02172816531420931</v>
+      </c>
+      <c r="F30">
+        <v>-0.1004300606373013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05120504211594232</v>
+        <v>0.05174220097011553</v>
       </c>
       <c r="C31">
-        <v>0.01889078585021792</v>
+        <v>-0.01691521033582925</v>
       </c>
       <c r="D31">
-        <v>0.02510785555044068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0272232335574067</v>
+      </c>
+      <c r="E31">
+        <v>0.02956377080581298</v>
+      </c>
+      <c r="F31">
+        <v>0.01123317896240415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04559178801471177</v>
+        <v>0.05042549704967522</v>
       </c>
       <c r="C32">
-        <v>0.002354634175473023</v>
+        <v>0.0008616102438740254</v>
       </c>
       <c r="D32">
-        <v>0.03284265789116368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03620520657441954</v>
+      </c>
+      <c r="E32">
+        <v>0.03186459089597383</v>
+      </c>
+      <c r="F32">
+        <v>0.003590178780387592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08932620414541609</v>
+        <v>0.08971836025626484</v>
       </c>
       <c r="C33">
-        <v>0.01475606415695316</v>
+        <v>-0.008879744794387327</v>
       </c>
       <c r="D33">
-        <v>0.09328233976930431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1062129084716549</v>
+      </c>
+      <c r="E33">
+        <v>0.0570961524362843</v>
+      </c>
+      <c r="F33">
+        <v>-0.02394836978792734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06645703740634806</v>
+        <v>0.06586161616946802</v>
       </c>
       <c r="C34">
-        <v>0.01636840289750152</v>
+        <v>-0.01130766086960668</v>
       </c>
       <c r="D34">
-        <v>0.1021500810699625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1126355086940806</v>
+      </c>
+      <c r="E34">
+        <v>0.04383940377595185</v>
+      </c>
+      <c r="F34">
+        <v>-0.03073224119908926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02690791262544271</v>
+        <v>0.02824939623199512</v>
       </c>
       <c r="C35">
-        <v>0.005039075797736513</v>
+        <v>-0.004415456978520528</v>
       </c>
       <c r="D35">
-        <v>0.009479238465207429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01198870837537012</v>
+      </c>
+      <c r="E35">
+        <v>0.01773593191069292</v>
+      </c>
+      <c r="F35">
+        <v>0.006939301572254101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02360684151125544</v>
+        <v>0.02817235199838357</v>
       </c>
       <c r="C36">
-        <v>0.008582374642759209</v>
+        <v>-0.007590537365067766</v>
       </c>
       <c r="D36">
-        <v>0.03966654165540406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04168888800507619</v>
+      </c>
+      <c r="E36">
+        <v>0.01971134181480117</v>
+      </c>
+      <c r="F36">
+        <v>-0.01517897906757151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002737705861312985</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0009059336657695422</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003132991265966335</v>
+      </c>
+      <c r="E37">
+        <v>0.0009388237629799252</v>
+      </c>
+      <c r="F37">
+        <v>0.0008572115003533552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1051320366484047</v>
+        <v>0.0956887488952924</v>
       </c>
       <c r="C39">
-        <v>0.0235522889585172</v>
+        <v>-0.01680298782863481</v>
       </c>
       <c r="D39">
-        <v>0.1543976314874828</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1535893348907666</v>
+      </c>
+      <c r="E39">
+        <v>0.07087907892134958</v>
+      </c>
+      <c r="F39">
+        <v>0.00542188549163181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04293862420718354</v>
+        <v>0.048040901196835</v>
       </c>
       <c r="C40">
-        <v>0.01171508639570115</v>
+        <v>-0.0101563555947253</v>
       </c>
       <c r="D40">
-        <v>0.02927813387314901</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03564475630171447</v>
+      </c>
+      <c r="E40">
+        <v>0.001581765188846378</v>
+      </c>
+      <c r="F40">
+        <v>0.03005481438614723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02563330705285275</v>
+        <v>0.02800684502520469</v>
       </c>
       <c r="C41">
-        <v>0.008288640679770179</v>
+        <v>-0.007739680533979693</v>
       </c>
       <c r="D41">
-        <v>0.009877179306946508</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01139926809944554</v>
+      </c>
+      <c r="E41">
+        <v>0.01165288984288044</v>
+      </c>
+      <c r="F41">
+        <v>0.01371205859193643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04064538189702208</v>
+        <v>0.03945459299952263</v>
       </c>
       <c r="C43">
-        <v>0.009206022961799754</v>
+        <v>-0.008170799795684375</v>
       </c>
       <c r="D43">
-        <v>0.021365900284874</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02204857745680816</v>
+      </c>
+      <c r="E43">
+        <v>0.027104124709328</v>
+      </c>
+      <c r="F43">
+        <v>0.02764030136506924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06555882809626709</v>
+        <v>0.07247845564755957</v>
       </c>
       <c r="C44">
-        <v>0.02362014294737006</v>
+        <v>-0.01956117977705519</v>
       </c>
       <c r="D44">
-        <v>0.08402771218363814</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09064510269522072</v>
+      </c>
+      <c r="E44">
+        <v>0.07713463896836983</v>
+      </c>
+      <c r="F44">
+        <v>-0.1898204489650838</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001239257747954234</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-5.80790589947944e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-4.493184676531647e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.000195519608873152</v>
+      </c>
+      <c r="F45">
+        <v>-0.0001065346869257332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02221843019744884</v>
+        <v>0.02488869791265434</v>
       </c>
       <c r="C46">
-        <v>0.004921634839023258</v>
+        <v>-0.004117603872066703</v>
       </c>
       <c r="D46">
-        <v>0.01451164073671081</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01647860071649329</v>
+      </c>
+      <c r="E46">
+        <v>0.03372121559268236</v>
+      </c>
+      <c r="F46">
+        <v>0.02872030308610686</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05435271291714071</v>
+        <v>0.0531410656011414</v>
       </c>
       <c r="C47">
-        <v>0.007227060277173006</v>
+        <v>-0.005670102541662191</v>
       </c>
       <c r="D47">
-        <v>0.009729658189892638</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01333636172225572</v>
+      </c>
+      <c r="E47">
+        <v>0.02416243972371213</v>
+      </c>
+      <c r="F47">
+        <v>0.04671587735484102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04836320263945734</v>
+        <v>0.05179666887690146</v>
       </c>
       <c r="C48">
-        <v>0.006046131112045801</v>
+        <v>-0.003306958776090991</v>
       </c>
       <c r="D48">
-        <v>0.05160330902553162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05408762559540362</v>
+      </c>
+      <c r="E48">
+        <v>-0.001018756236512661</v>
+      </c>
+      <c r="F48">
+        <v>-0.01157537960914022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.196442109061137</v>
+        <v>0.1989522713962618</v>
       </c>
       <c r="C49">
-        <v>0.02817247970850102</v>
+        <v>-0.02468295569868461</v>
       </c>
       <c r="D49">
-        <v>-0.01091829306355706</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004690201050515683</v>
+      </c>
+      <c r="E49">
+        <v>0.02411764265917904</v>
+      </c>
+      <c r="F49">
+        <v>-0.06422229601092484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0496245930921938</v>
+        <v>0.05223849932810216</v>
       </c>
       <c r="C50">
-        <v>0.01461310440068537</v>
+        <v>-0.0131135695007871</v>
       </c>
       <c r="D50">
-        <v>0.02488533340354031</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02694732482189997</v>
+      </c>
+      <c r="E50">
+        <v>0.03082259088172812</v>
+      </c>
+      <c r="F50">
+        <v>-0.005928975619856982</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1522906965669582</v>
+        <v>0.1459770348429038</v>
       </c>
       <c r="C52">
-        <v>0.02472459402902618</v>
+        <v>-0.02119042232474055</v>
       </c>
       <c r="D52">
-        <v>0.04342022652603029</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0449512242335145</v>
+      </c>
+      <c r="E52">
+        <v>0.03185962155000913</v>
+      </c>
+      <c r="F52">
+        <v>-0.04377690602130072</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1753875167708091</v>
+        <v>0.1682670281698429</v>
       </c>
       <c r="C53">
-        <v>0.02738895931763284</v>
+        <v>-0.02524916812437349</v>
       </c>
       <c r="D53">
-        <v>0.005696507768392026</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008896868638272458</v>
+      </c>
+      <c r="E53">
+        <v>0.04065205249661678</v>
+      </c>
+      <c r="F53">
+        <v>-0.09586694205721892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01451869527153606</v>
+        <v>0.01824268468090462</v>
       </c>
       <c r="C54">
-        <v>0.01223650279083028</v>
+        <v>-0.011360336840668</v>
       </c>
       <c r="D54">
-        <v>0.02829891973498023</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02767286800117014</v>
+      </c>
+      <c r="E54">
+        <v>0.01981527837034482</v>
+      </c>
+      <c r="F54">
+        <v>0.005911199754588968</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1189086453504122</v>
+        <v>0.1169239600915223</v>
       </c>
       <c r="C55">
-        <v>0.02356777365712661</v>
+        <v>-0.02189483948325712</v>
       </c>
       <c r="D55">
-        <v>0.005305894669072875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01205388035865297</v>
+      </c>
+      <c r="E55">
+        <v>0.03971714758034706</v>
+      </c>
+      <c r="F55">
+        <v>-0.0338444755025173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1810212513717725</v>
+        <v>0.1751566888396985</v>
       </c>
       <c r="C56">
-        <v>0.02540364158397603</v>
+        <v>-0.02366837171634876</v>
       </c>
       <c r="D56">
-        <v>-0.003833753552442186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007667799096689522</v>
+      </c>
+      <c r="E56">
+        <v>0.04044842476053395</v>
+      </c>
+      <c r="F56">
+        <v>-0.05433789094004533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04557303172895034</v>
+        <v>0.04439170883506851</v>
       </c>
       <c r="C58">
-        <v>0.004845620926616373</v>
+        <v>-0.0002919994273014659</v>
       </c>
       <c r="D58">
-        <v>0.06880671810910771</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07791280597427043</v>
+      </c>
+      <c r="E58">
+        <v>0.0361300446508307</v>
+      </c>
+      <c r="F58">
+        <v>0.05103452446562218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1664558998493685</v>
+        <v>0.1719292038392352</v>
       </c>
       <c r="C59">
-        <v>0.0238143969103099</v>
+        <v>-0.02852197208580396</v>
       </c>
       <c r="D59">
-        <v>-0.2186820988646551</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2147231500709924</v>
+      </c>
+      <c r="E59">
+        <v>-0.05391843514842033</v>
+      </c>
+      <c r="F59">
+        <v>0.06353603829568374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.230064619027302</v>
+        <v>0.2237578535500225</v>
       </c>
       <c r="C60">
-        <v>0.008791789264531575</v>
+        <v>-0.004015152318010839</v>
       </c>
       <c r="D60">
-        <v>0.02435874048125646</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0269705807746775</v>
+      </c>
+      <c r="E60">
+        <v>-0.007774548955777678</v>
+      </c>
+      <c r="F60">
+        <v>-0.01333936264304838</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0766070646611053</v>
+        <v>0.07224655931157949</v>
       </c>
       <c r="C61">
-        <v>0.01709030810423356</v>
+        <v>-0.01132954302718844</v>
       </c>
       <c r="D61">
-        <v>0.1144792759103704</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1186798006662813</v>
+      </c>
+      <c r="E61">
+        <v>0.04610376015814115</v>
+      </c>
+      <c r="F61">
+        <v>0.01228824632854848</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1723842832955917</v>
+        <v>0.1679934012613897</v>
       </c>
       <c r="C62">
-        <v>0.02837911739963515</v>
+        <v>-0.02582462884762741</v>
       </c>
       <c r="D62">
-        <v>0.003344190440399031</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.009980392371808262</v>
+      </c>
+      <c r="E62">
+        <v>0.04298886865630132</v>
+      </c>
+      <c r="F62">
+        <v>-0.03556962740169665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04298789346170231</v>
+        <v>0.04752712735094416</v>
       </c>
       <c r="C63">
-        <v>0.006217862256456504</v>
+        <v>-0.003470874448299185</v>
       </c>
       <c r="D63">
-        <v>0.05733989448215791</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06552739403347839</v>
+      </c>
+      <c r="E63">
+        <v>0.02570632595386308</v>
+      </c>
+      <c r="F63">
+        <v>0.008695646647835372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1146284633534492</v>
+        <v>0.1115474439133337</v>
       </c>
       <c r="C64">
-        <v>0.01930926241711148</v>
+        <v>-0.0155540751626334</v>
       </c>
       <c r="D64">
-        <v>0.03957135317150855</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04585360514189666</v>
+      </c>
+      <c r="E64">
+        <v>0.03195316326461153</v>
+      </c>
+      <c r="F64">
+        <v>-0.02156971760756904</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1494313914273041</v>
+        <v>0.1558188433166426</v>
       </c>
       <c r="C65">
-        <v>0.04089871033886416</v>
+        <v>-0.0402815843417942</v>
       </c>
       <c r="D65">
-        <v>-0.05039039898578773</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03893136759616716</v>
+      </c>
+      <c r="E65">
+        <v>0.01072831839306146</v>
+      </c>
+      <c r="F65">
+        <v>-0.05847464016662917</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1271188590490304</v>
+        <v>0.115327809847445</v>
       </c>
       <c r="C66">
-        <v>0.02237110821391342</v>
+        <v>-0.01501705872228423</v>
       </c>
       <c r="D66">
-        <v>0.1394856242987767</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1440039874508315</v>
+      </c>
+      <c r="E66">
+        <v>0.07386503174921839</v>
+      </c>
+      <c r="F66">
+        <v>0.001388992170507025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0618802281488635</v>
+        <v>0.05473135847435021</v>
       </c>
       <c r="C67">
-        <v>0.00704055726261154</v>
+        <v>-0.004353762468390099</v>
       </c>
       <c r="D67">
-        <v>0.05565311998296422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05811392992661767</v>
+      </c>
+      <c r="E67">
+        <v>0.02449416486626742</v>
+      </c>
+      <c r="F67">
+        <v>0.07206515647946109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1143185694254986</v>
+        <v>0.1223899564700162</v>
       </c>
       <c r="C68">
-        <v>0.0313930468370692</v>
+        <v>-0.03844039950492507</v>
       </c>
       <c r="D68">
-        <v>-0.259781683895458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2565088252486439</v>
+      </c>
+      <c r="E68">
+        <v>-0.08601192182448619</v>
+      </c>
+      <c r="F68">
+        <v>-0.01746375952244894</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04027625642083087</v>
+        <v>0.03952400890059785</v>
       </c>
       <c r="C69">
-        <v>0.003481705385130949</v>
+        <v>-0.002444773705311102</v>
       </c>
       <c r="D69">
-        <v>0.01010647700534695</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01100063045109</v>
+      </c>
+      <c r="E69">
+        <v>0.02970769454238578</v>
+      </c>
+      <c r="F69">
+        <v>0.01904245607701112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06885453698876511</v>
+        <v>0.06961091025154562</v>
       </c>
       <c r="C70">
-        <v>-0.02262490004825428</v>
+        <v>0.02476823966364413</v>
       </c>
       <c r="D70">
-        <v>0.02939723659418501</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03118370259532938</v>
+      </c>
+      <c r="E70">
+        <v>-0.03940846559140031</v>
+      </c>
+      <c r="F70">
+        <v>0.3348152434292046</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1337104667214974</v>
+        <v>0.1427217869576852</v>
       </c>
       <c r="C71">
-        <v>0.03657759646903473</v>
+        <v>-0.04367292018525801</v>
       </c>
       <c r="D71">
-        <v>-0.2737220874122521</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2660645275844807</v>
+      </c>
+      <c r="E71">
+        <v>-0.09575417317885677</v>
+      </c>
+      <c r="F71">
+        <v>-0.02278095648677201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1378709117709189</v>
+        <v>0.1437189512740813</v>
       </c>
       <c r="C72">
-        <v>0.03193082262144939</v>
+        <v>-0.03134636289384621</v>
       </c>
       <c r="D72">
-        <v>0.001206238003239046</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006844151291565837</v>
+      </c>
+      <c r="E72">
+        <v>0.04318991473277642</v>
+      </c>
+      <c r="F72">
+        <v>-0.03662743107524371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1983079145846591</v>
+        <v>0.2020556246242489</v>
       </c>
       <c r="C73">
-        <v>0.02200416698962799</v>
+        <v>-0.01684510342440302</v>
       </c>
       <c r="D73">
-        <v>0.01171796319678098</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01855217904612469</v>
+      </c>
+      <c r="E73">
+        <v>0.06741480004189788</v>
+      </c>
+      <c r="F73">
+        <v>-0.03139587800686264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08877493051678249</v>
+        <v>0.08873092373929503</v>
       </c>
       <c r="C74">
-        <v>0.01626526641946168</v>
+        <v>-0.01454054492923816</v>
       </c>
       <c r="D74">
-        <v>0.0119077807863939</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01747646059974835</v>
+      </c>
+      <c r="E74">
+        <v>0.04984296008575493</v>
+      </c>
+      <c r="F74">
+        <v>-0.05240455576827058</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1311160182412908</v>
+        <v>0.1233817979167461</v>
       </c>
       <c r="C75">
-        <v>0.03463082688375824</v>
+        <v>-0.03165522959030678</v>
       </c>
       <c r="D75">
-        <v>0.02779586516103109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03302211761639359</v>
+      </c>
+      <c r="E75">
+        <v>0.0620054951767697</v>
+      </c>
+      <c r="F75">
+        <v>-0.01841357619465776</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08029749951757853</v>
+        <v>0.09315858048082454</v>
       </c>
       <c r="C77">
-        <v>0.01575811729196263</v>
+        <v>-0.0107783635389294</v>
       </c>
       <c r="D77">
-        <v>0.1207741039719819</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1218468375095</v>
+      </c>
+      <c r="E77">
+        <v>0.04831393302221498</v>
+      </c>
+      <c r="F77">
+        <v>-0.04357365401271907</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.0992463890264416</v>
+        <v>0.1000444759757299</v>
       </c>
       <c r="C78">
-        <v>0.04554204357968278</v>
+        <v>-0.04132126683395311</v>
       </c>
       <c r="D78">
-        <v>0.1134583040097478</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1124488057463753</v>
+      </c>
+      <c r="E78">
+        <v>0.07770419607025845</v>
+      </c>
+      <c r="F78">
+        <v>-0.04512920051381004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1689049615389751</v>
+        <v>0.164501346400877</v>
       </c>
       <c r="C79">
-        <v>0.03192147874902344</v>
+        <v>-0.02898518080063571</v>
       </c>
       <c r="D79">
-        <v>0.01250704320568318</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01814793756193217</v>
+      </c>
+      <c r="E79">
+        <v>0.05120775395541785</v>
+      </c>
+      <c r="F79">
+        <v>-0.01280384030608884</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08136159635360223</v>
+        <v>0.0798310909205962</v>
       </c>
       <c r="C80">
-        <v>0.004576173918247533</v>
+        <v>-0.001744441093516766</v>
       </c>
       <c r="D80">
-        <v>0.05342387046260259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05307895176740252</v>
+      </c>
+      <c r="E80">
+        <v>0.03616521467679008</v>
+      </c>
+      <c r="F80">
+        <v>0.05849192738323275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1183564923625429</v>
+        <v>0.1126644519512883</v>
       </c>
       <c r="C81">
-        <v>0.03638932329890174</v>
+        <v>-0.03494403698081069</v>
       </c>
       <c r="D81">
-        <v>0.007168605467934792</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01202601107482346</v>
+      </c>
+      <c r="E81">
+        <v>0.05606277253314742</v>
+      </c>
+      <c r="F81">
+        <v>-0.008900645756698772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1640972761737779</v>
+        <v>0.1620114215076144</v>
       </c>
       <c r="C82">
-        <v>0.03141381394000294</v>
+        <v>-0.02955651042517425</v>
       </c>
       <c r="D82">
-        <v>0.006788061941902313</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005650167455502557</v>
+      </c>
+      <c r="E82">
+        <v>0.03955144182517373</v>
+      </c>
+      <c r="F82">
+        <v>-0.09660217882064505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05634722882710072</v>
+        <v>0.05197026376231971</v>
       </c>
       <c r="C83">
-        <v>0.005585507265468324</v>
+        <v>-0.003373032180773519</v>
       </c>
       <c r="D83">
-        <v>0.03860162052231916</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03948551861484033</v>
+      </c>
+      <c r="E83">
+        <v>-0.009256397224826796</v>
+      </c>
+      <c r="F83">
+        <v>0.04028068262201111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05863719808000323</v>
+        <v>0.05448566753061342</v>
       </c>
       <c r="C84">
-        <v>0.0144034305064108</v>
+        <v>-0.01115814377897799</v>
       </c>
       <c r="D84">
-        <v>0.07469598368486596</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07589519208891568</v>
+      </c>
+      <c r="E84">
+        <v>0.01804296247800677</v>
+      </c>
+      <c r="F84">
+        <v>-0.001804774096416906</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1404366657858971</v>
+        <v>0.1350502379731616</v>
       </c>
       <c r="C85">
-        <v>0.03503796041233147</v>
+        <v>-0.03292410615561047</v>
       </c>
       <c r="D85">
-        <v>0.008041815661945563</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01235892617664502</v>
+      </c>
+      <c r="E85">
+        <v>0.04663460621175775</v>
+      </c>
+      <c r="F85">
+        <v>-0.05866983447995359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.0807626184691231</v>
+        <v>0.07796783361526337</v>
       </c>
       <c r="C86">
-        <v>-0.005065881423047019</v>
+        <v>0.008435124032949784</v>
       </c>
       <c r="D86">
-        <v>0.02478660767234431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04992051834439334</v>
+      </c>
+      <c r="E86">
+        <v>0.08898364110006581</v>
+      </c>
+      <c r="F86">
+        <v>0.8262065389188094</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09217602921533363</v>
+        <v>0.08998169647965419</v>
       </c>
       <c r="C87">
-        <v>0.03003853881150818</v>
+        <v>-0.02191460039281775</v>
       </c>
       <c r="D87">
-        <v>0.07255561320955452</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0898602275925677</v>
+      </c>
+      <c r="E87">
+        <v>-0.05790054461840478</v>
+      </c>
+      <c r="F87">
+        <v>-0.07710045847430579</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06207488896106122</v>
+        <v>0.06103304014649394</v>
       </c>
       <c r="C88">
-        <v>0.007032499952661243</v>
+        <v>-0.004280531781939407</v>
       </c>
       <c r="D88">
-        <v>0.0519707465312382</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05166797354062089</v>
+      </c>
+      <c r="E88">
+        <v>0.03105701087502161</v>
+      </c>
+      <c r="F88">
+        <v>-0.0007464295399909886</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1244427828897501</v>
+        <v>0.1308909197484283</v>
       </c>
       <c r="C89">
-        <v>0.01202088667006709</v>
+        <v>-0.01880754021088026</v>
       </c>
       <c r="D89">
-        <v>-0.2336049884284199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2380794915157038</v>
+      </c>
+      <c r="E89">
+        <v>-0.08769827379110445</v>
+      </c>
+      <c r="F89">
+        <v>-0.008099579218027529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1445504281165572</v>
+        <v>0.1576143797133402</v>
       </c>
       <c r="C90">
-        <v>0.03279594274088678</v>
+        <v>-0.04074333206010097</v>
       </c>
       <c r="D90">
-        <v>-0.2610447786286791</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2643858975477598</v>
+      </c>
+      <c r="E90">
+        <v>-0.1165821654012891</v>
+      </c>
+      <c r="F90">
+        <v>-0.009830078440463423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1253840955488651</v>
+        <v>0.1213064166868666</v>
       </c>
       <c r="C91">
-        <v>0.02567475863974376</v>
+        <v>-0.02468380770724871</v>
       </c>
       <c r="D91">
-        <v>-0.01900660963726739</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01375338811986469</v>
+      </c>
+      <c r="E91">
+        <v>0.05721367446981678</v>
+      </c>
+      <c r="F91">
+        <v>0.01682792332555719</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1458470895509919</v>
+        <v>0.1509850578374904</v>
       </c>
       <c r="C92">
-        <v>0.02392486744197378</v>
+        <v>-0.03137835345003584</v>
       </c>
       <c r="D92">
-        <v>-0.2874599092666356</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2890358968441049</v>
+      </c>
+      <c r="E92">
+        <v>-0.105371976871147</v>
+      </c>
+      <c r="F92">
+        <v>0.005760480080114879</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1500241005154355</v>
+        <v>0.1604914104269396</v>
       </c>
       <c r="C93">
-        <v>0.02949770858564325</v>
+        <v>-0.03560510534386988</v>
       </c>
       <c r="D93">
-        <v>-0.2573258264698634</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2571241032430266</v>
+      </c>
+      <c r="E93">
+        <v>-0.07073805921435834</v>
+      </c>
+      <c r="F93">
+        <v>-0.01464011256439892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1306530187888304</v>
+        <v>0.1229911828444216</v>
       </c>
       <c r="C94">
-        <v>0.03088198088517466</v>
+        <v>-0.02735431509406279</v>
       </c>
       <c r="D94">
-        <v>0.04149136645105711</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04546240970920255</v>
+      </c>
+      <c r="E94">
+        <v>0.06391289646522202</v>
+      </c>
+      <c r="F94">
+        <v>-0.02230689674206519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1268475603526293</v>
+        <v>0.1295140003237462</v>
       </c>
       <c r="C95">
-        <v>0.01310028133571116</v>
+        <v>-0.007425856737724756</v>
       </c>
       <c r="D95">
-        <v>0.09212749031255567</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1030090421683442</v>
+      </c>
+      <c r="E95">
+        <v>0.06359492144703617</v>
+      </c>
+      <c r="F95">
+        <v>0.03020364291003601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1546423855600669</v>
+        <v>0.1406250905481044</v>
       </c>
       <c r="C96">
-        <v>-0.9821639242502488</v>
+        <v>0.9831640988805235</v>
       </c>
       <c r="D96">
-        <v>-0.02709375697729744</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05445939880609927</v>
+      </c>
+      <c r="E96">
+        <v>0.05337431363024236</v>
+      </c>
+      <c r="F96">
+        <v>-0.04364011494113602</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1895010291410046</v>
+        <v>0.1933313487474133</v>
       </c>
       <c r="C97">
-        <v>0.002048365940113655</v>
+        <v>-0.0001135405453193748</v>
       </c>
       <c r="D97">
-        <v>-0.02055960048142463</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02541987112154389</v>
+      </c>
+      <c r="E97">
+        <v>0.01751639119318154</v>
+      </c>
+      <c r="F97">
+        <v>0.1803830017497197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1948511728566704</v>
+        <v>0.2010007978759686</v>
       </c>
       <c r="C98">
-        <v>0.01619374651727641</v>
+        <v>-0.011300345195783</v>
       </c>
       <c r="D98">
-        <v>0.00696773250053785</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009768540025696671</v>
+      </c>
+      <c r="E98">
+        <v>-0.08819157595730791</v>
+      </c>
+      <c r="F98">
+        <v>0.07425729262781255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05787923854044161</v>
+        <v>0.05748403043328077</v>
       </c>
       <c r="C99">
-        <v>-0.0001175915384785015</v>
+        <v>0.002327179139193722</v>
       </c>
       <c r="D99">
-        <v>0.04026022804595561</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04502365628525105</v>
+      </c>
+      <c r="E99">
+        <v>0.02631278480174467</v>
+      </c>
+      <c r="F99">
+        <v>0.01052401625909988</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1458899663323193</v>
+        <v>0.134401569663625</v>
       </c>
       <c r="C100">
-        <v>-0.03503699510714219</v>
+        <v>0.04603643184195796</v>
       </c>
       <c r="D100">
-        <v>0.4018282271330291</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3635851929089745</v>
+      </c>
+      <c r="E100">
+        <v>-0.8931970699246148</v>
+      </c>
+      <c r="F100">
+        <v>0.01617791301452967</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02535272888351839</v>
+        <v>0.02747430973221466</v>
       </c>
       <c r="C101">
-        <v>0.009836811583541605</v>
+        <v>-0.009052471033299394</v>
       </c>
       <c r="D101">
-        <v>0.03062535077095002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0309956740450315</v>
+      </c>
+      <c r="E101">
+        <v>0.01663073563639648</v>
+      </c>
+      <c r="F101">
+        <v>0.02716777292750721</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
